--- a/Biomass/sens_Price petroleum in Kenya/case_0.109.xlsx
+++ b/Biomass/sens_Price petroleum in Kenya/case_0.109.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\payam\Documents\GitHub\CIVICS_Kenya\CVX_Kenya\New Cases\Biomass\sens_Price petroleum in Kenya\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\payam\Documents\GitHub\CIVICS_Kenya\Biomass\sens_Price petroleum in Kenya\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C08B7137-9706-4F70-B297-106B98A17E9F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F307F20-DC36-4AFE-A3A2-4A7B074E2321}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2688" yWindow="2688" windowWidth="17280" windowHeight="8964" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8964" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="S" sheetId="1" r:id="rId1"/>
@@ -1556,8 +1556,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1586,7 +1586,7 @@
       </c>
       <c r="C2" s="46">
         <f>main!C31</f>
-        <v>5421.3</v>
+        <v>0.99999999999967082</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -1795,7 +1795,7 @@
       </c>
       <c r="F2" s="49">
         <f>main!C34</f>
-        <v>216.852</v>
+        <v>3.9999999999986831E-2</v>
       </c>
       <c r="G2" s="46" t="s">
         <v>15</v>
@@ -2487,8 +2487,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:K45"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView topLeftCell="A16" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2817,7 +2817,7 @@
       </c>
       <c r="C15" s="19">
         <f>C19*(C43+C44+C45)*12/(10^6)</f>
-        <v>35.700000000000003</v>
+        <v>6.5851364063948216E-3</v>
       </c>
       <c r="D15" s="19" t="s">
         <v>219</v>
@@ -2897,7 +2897,7 @@
         <v>228</v>
       </c>
       <c r="C19" s="39">
-        <v>17</v>
+        <v>3.1357792411403911E-3</v>
       </c>
       <c r="D19" s="39" t="s">
         <v>229</v>
@@ -2955,7 +2955,7 @@
       </c>
       <c r="C22" s="22">
         <f>C2*C16*C19*C9/(10^6)</f>
-        <v>4517.75</v>
+        <v>0.83333333333305903</v>
       </c>
       <c r="D22" s="22" t="s">
         <v>219</v>
@@ -2995,7 +2995,7 @@
       </c>
       <c r="C24" s="22">
         <f>C4*C18*C19*1000*C9/(10^6)</f>
-        <v>903.55</v>
+        <v>0.16666666666661178</v>
       </c>
       <c r="D24" s="22" t="s">
         <v>219</v>
@@ -3141,7 +3141,7 @@
       </c>
       <c r="C31" s="27">
         <f>SUM(C22:C24)</f>
-        <v>5421.3</v>
+        <v>0.99999999999967082</v>
       </c>
       <c r="D31" s="21" t="s">
         <v>219</v>
@@ -3207,7 +3207,7 @@
       </c>
       <c r="C34" s="25">
         <f>C31/C13</f>
-        <v>216.852</v>
+        <v>3.9999999999986831E-2</v>
       </c>
       <c r="D34" s="21" t="s">
         <v>219</v>
